--- a/TAM_Deployable.xlsx
+++ b/TAM_Deployable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Desktop\OSU_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DF56F-C2C9-4735-9593-1881DEF67818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE4CCC-D536-48A3-9B58-A62C95868EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="0" windowWidth="28950" windowHeight="15465" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22065" yWindow="-180" windowWidth="28950" windowHeight="15465" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="12" r:id="rId1"/>
@@ -1085,16 +1085,16 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
                   <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,67 +2830,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77924483867703054</c:v>
+                  <c:v>6.0393290683358296E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71428625802026513</c:v>
+                  <c:v>9.1952176666401514E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63906671457271802</c:v>
+                  <c:v>1.3977045284665019E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55634417714509599</c:v>
+                  <c:v>2.1192398268345326E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47037483044521289</c:v>
+                  <c:v>3.2011597972806768E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3861280467110263</c:v>
+                  <c:v>4.808291077104393E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30818997378123075</c:v>
+                  <c:v>7.1625743443136075E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2398371240788427</c:v>
+                  <c:v>0.1054192731962313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1826418325506389</c:v>
+                  <c:v>0.15253713468087066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1366345721016054</c:v>
+                  <c:v>0.21563822738079949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1007874389160372</c:v>
+                  <c:v>0.29573362854008012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3543951914683603E-2</c:v>
+                  <c:v>0.39075807907806781</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3228637904211312E-2</c:v>
+                  <c:v>0.49486116443469069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8293146110694537E-2</c:v>
+                  <c:v>0.59941174732372715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7427020732911367E-2</c:v>
+                  <c:v>0.69563244170357819</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9581503252217258E-2</c:v>
+                  <c:v>0.77732688100061809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3948016157943185E-2</c:v>
+                  <c:v>0.84207207029847431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.9188544728520001E-3</c:v>
+                  <c:v>0.89064023616330668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0452802026288869E-3</c:v>
+                  <c:v>0.92559187524337716</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.000000000000001E-3</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,34 +2955,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77924483867703054</c:v>
+                  <c:v>6.0393290683358296E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47037483044521289</c:v>
+                  <c:v>3.2011597972806768E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1366345721016054</c:v>
+                  <c:v>0.21563822738079949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.000000000000001E-3</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83288992367719195</c:v>
+                  <c:v>3.9622408320308796E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6692,7 +6692,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6868,15 +6868,15 @@
       </c>
       <c r="F6" s="22">
         <f>C7-(B8*G6)</f>
-        <v>2.1333333333333337</v>
+        <v>-0.19999999999999929</v>
       </c>
       <c r="G6" s="23">
         <f>(C7-C6)/(B8-B7)</f>
-        <v>-6.6666666666666693E-2</v>
+        <v>4.9999999999999968E-2</v>
       </c>
       <c r="H6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Y= 2.13 +  (-0.0667 * Temperature)</v>
+        <v>Y= -0.2 +  (0.05 * Temperature)</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="86"/>
@@ -6893,7 +6893,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="36">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="E7" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6901,15 +6901,15 @@
       </c>
       <c r="F7" s="22">
         <f>C8-(B9*G7)</f>
-        <v>5.192333333333333</v>
+        <v>1.3333333333333328</v>
       </c>
       <c r="G7" s="23">
         <f>(C8-C7)/(B9-B8)</f>
-        <v>-0.19966666666666666</v>
+        <v>-1.6666666666666646E-2</v>
       </c>
       <c r="H7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Y= 5.19 +  (-0.1997 * Temperature)</v>
+        <v>Y= 1.33 +  (-0.0167 * Temperature)</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="85"/>
@@ -6927,7 +6927,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="36">
-        <v>1E-3</v>
+        <v>0.9</v>
       </c>
       <c r="E8" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6935,15 +6935,15 @@
       </c>
       <c r="F8" s="22">
         <f>IFERROR(C9-(B10*G8),"")</f>
-        <v>2.7E-2</v>
+        <v>3.4999999999999991</v>
       </c>
       <c r="G8" s="23">
         <f>IFERROR((C9-C8)/(B10-B9),"")</f>
-        <v>-1E-3</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="H8" s="24" t="str">
         <f>IFERROR(CONCATENATE("Y= ",ROUND(F8,2)," +  (",ROUND(G8,4)," * ",$B$2,")"),"")</f>
-        <v>Y= 0.03 +  (-0.001 * Temperature)</v>
+        <v>Y= 3.5 +  (-0.1 * Temperature)</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="86"/>
@@ -6960,7 +6960,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="36">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>CONCATENATE(B9," -",B10)</f>
@@ -6993,7 +6993,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="36">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="21" t="e">
         <f>CONCATENATE(#REF!," -",B11)</f>
@@ -7823,7 +7823,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -9849,8 +9849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FAD37E-DB47-4E7B-8496-ECECE347E35B}">
   <dimension ref="A1:N163"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="G2" s="16">
         <f t="shared" ref="G2:G16" si="0">C56</f>
-        <v>0.77924483867703054</v>
+        <v>6.0393290683358296E-3</v>
       </c>
       <c r="I2" s="82"/>
       <c r="J2" s="83"/>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="G3" s="16">
         <f t="shared" si="0"/>
-        <v>0.47037483044521289</v>
+        <v>3.2011597972806768E-2</v>
       </c>
       <c r="I3" s="85"/>
       <c r="J3" s="86"/>
@@ -9946,7 +9946,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="39">
-        <v>5.0000000000000001E-3</v>
+        <v>0.95</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1366345721016054</v>
+        <v>0.21563822738079949</v>
       </c>
       <c r="I4" s="85"/>
       <c r="J4" s="86"/>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>5.000000000000001E-3</v>
+        <v>0.95</v>
       </c>
       <c r="I5" s="85"/>
       <c r="J5" s="86"/>
@@ -9994,7 +9994,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="32">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="15">
         <v>5</v>
@@ -10002,7 +10002,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I6" s="85"/>
       <c r="J6" s="86"/>
@@ -10018,7 +10018,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I7" s="85"/>
       <c r="J7" s="86"/>
@@ -10034,7 +10034,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I8" s="85"/>
       <c r="J8" s="86"/>
@@ -10050,7 +10050,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I9" s="85"/>
       <c r="J9" s="86"/>
@@ -10066,7 +10066,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="16">
         <f>C64</f>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I10" s="85"/>
       <c r="J10" s="86"/>
@@ -10082,7 +10082,7 @@
       <c r="F11" s="61"/>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="I11" s="88"/>
       <c r="J11" s="89"/>
@@ -10095,21 +10095,21 @@
       <c r="F12" s="61"/>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="F13" s="61"/>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>0.68531411073536996</v>
+        <v>1.0874445299628338E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="F14" s="61"/>
       <c r="G14" s="18">
         <f t="shared" si="0"/>
-        <v>0.67024796738719805</v>
+        <v>1.1824442763083205E-2</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -10121,7 +10121,7 @@
       <c r="F15" s="61"/>
       <c r="G15" s="18">
         <f t="shared" si="0"/>
-        <v>0.65482381638824583</v>
+        <v>1.2856353813624929E-2</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -10133,7 +10133,7 @@
       <c r="F16" s="61"/>
       <c r="G16" s="18">
         <f t="shared" si="0"/>
-        <v>0.63906671457271802</v>
+        <v>1.3977045284665019E-2</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B25">
         <f>LN(B4/(1-B4))</f>
-        <v>-5.2933048247244923</v>
+        <v>2.9444389791664394</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="B26">
         <f>LN(B6/(1-B6))</f>
-        <v>0.84729786038720345</v>
+        <v>-4.5951198501345898</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="B27" s="2">
         <f>($B$25-$B$26)/($B$3-$B$5)</f>
-        <v>-6.8995535787771858E-2</v>
+        <v>8.4714144149449763E-2</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B28" s="2">
         <f>$B$25-($B$27*$B$3)</f>
-        <v>1.606248754052694</v>
+        <v>-5.5269754357785361</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -10258,11 +10258,11 @@
       </c>
       <c r="B32">
         <f t="shared" ref="B32:B52" si="1">EXP($B$28+($B$27*A32))</f>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C32">
         <f>B32/(1+B32)</f>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -10276,11 +10276,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>3.5299054119825497</v>
+        <v>6.0760241777725633E-3</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:C52" si="3">B33/(1+B33)</f>
-        <v>0.77924483867703054</v>
+        <v>6.0393290683358296E-3</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -10294,11 +10294,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>2.5000066607609241</v>
+        <v>9.2805543842706117E-3</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>0.71428625802026513</v>
+        <v>9.1952176666401514E-3</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -10312,11 +10312,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>1.7705951220768528</v>
+        <v>1.4175172309959249E-2</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>0.63906671457271802</v>
+        <v>1.3977045284665019E-2</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -10330,11 +10330,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>1.2539994934926082</v>
+        <v>2.1651239968766951E-2</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>0.55634417714509599</v>
+        <v>2.1192398268345326E-2</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -10348,11 +10348,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>0.88812778826319538</v>
+        <v>3.3070228843410751E-2</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>0.47037483044521289</v>
+        <v>3.2011597972806768E-2</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -10369,11 +10369,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>0.629004216013206</v>
+        <v>5.0511658331494645E-2</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>0.3861280467110263</v>
+        <v>4.808291077104393E-2</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -10390,11 +10390,11 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>0.44548353175178274</v>
+        <v>7.7151798358541537E-2</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>0.30818997378123075</v>
+        <v>7.1625743443136075E-2</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -10411,11 +10411,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>0.31550754670597486</v>
+        <v>0.11784210193403329</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
-        <v>0.2398371240788427</v>
+        <v>0.1054192731962313</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -10432,11 +10432,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>0.22345385392133416</v>
+        <v>0.17999270637472675</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
-        <v>0.1826418325506389</v>
+        <v>0.15253713468087066</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -10453,11 +10453,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>0.15825809985720815</v>
+        <v>0.27492189817043722</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
-        <v>0.1366345721016054</v>
+        <v>0.21563822738079949</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -10474,11 +10474,11 @@
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
-        <v>0.11208410922834774</v>
+        <v>0.41991729340566769</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
-        <v>0.1007874389160372</v>
+        <v>0.29573362854008012</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -10495,11 +10495,11 @@
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
-        <v>7.9382019326955711E-2</v>
+        <v>0.64138409662742057</v>
       </c>
       <c r="C44">
         <f t="shared" si="3"/>
-        <v>7.3543951914683603E-2</v>
+        <v>0.39075807907806781</v>
       </c>
       <c r="D44">
         <v>13</v>
@@ -10516,11 +10516,11 @@
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
-        <v>5.6221216689934017E-2</v>
+        <v>0.97965376960352557</v>
       </c>
       <c r="C45">
         <f t="shared" si="3"/>
-        <v>5.3228637904211312E-2</v>
+        <v>0.49486116443469069</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -10537,11 +10537,11 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>3.9817898724367584E-2</v>
+        <v>1.4963288197273463</v>
       </c>
       <c r="C46">
         <f t="shared" si="3"/>
-        <v>3.8293146110694537E-2</v>
+        <v>0.59941174732372715</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -10558,11 +10558,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>2.8200475766435355E-2</v>
+        <v>2.2855012722022945</v>
       </c>
       <c r="C47">
         <f t="shared" si="3"/>
-        <v>2.7427020732911367E-2</v>
+        <v>0.69563244170357819</v>
       </c>
       <c r="D47">
         <v>16</v>
@@ -10579,11 +10579,11 @@
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
-        <v>1.997259671984207E-2</v>
+        <v>3.4908878291805636</v>
       </c>
       <c r="C48">
         <f t="shared" si="3"/>
-        <v>1.9581503252217258E-2</v>
+        <v>0.77732688100061809</v>
       </c>
       <c r="D48">
         <v>17</v>
@@ -10600,11 +10600,11 @@
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
-        <v>1.4145315243518987E-2</v>
+        <v>5.332002210691547</v>
       </c>
       <c r="C49">
         <f t="shared" si="3"/>
-        <v>1.3948016157943185E-2</v>
+        <v>0.84207207029847431</v>
       </c>
       <c r="D49">
         <v>18</v>
@@ -10621,11 +10621,11 @@
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
-        <v>1.0018223776568247E-2</v>
+        <v>8.1441309391751986</v>
       </c>
       <c r="C50">
         <f t="shared" si="3"/>
-        <v>9.9188544728520001E-3</v>
+        <v>0.89064023616330668</v>
       </c>
       <c r="D50">
         <v>19</v>
@@ -10642,11 +10642,11 @@
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
-        <v>7.0952683563119505E-3</v>
+        <v>12.439392583415341</v>
       </c>
       <c r="C51">
         <f t="shared" si="3"/>
-        <v>7.0452802026288869E-3</v>
+        <v>0.92559187524337716</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -10663,11 +10663,11 @@
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
-        <v>5.0251256281407045E-3</v>
+        <v>18.999999999999979</v>
       </c>
       <c r="C52">
         <f t="shared" si="3"/>
-        <v>5.000000000000001E-3</v>
+        <v>0.95</v>
       </c>
       <c r="D52">
         <v>21</v>
@@ -10715,11 +10715,11 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B76" si="5">EXP($B$28+($B$27*A56))</f>
-        <v>3.5299054119825497</v>
+        <v>6.0760241777725633E-3</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C76" si="6">B56/(1+B56)</f>
-        <v>0.77924483867703054</v>
+        <v>6.0393290683358296E-3</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -10736,11 +10736,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="5"/>
-        <v>0.88812778826319538</v>
+        <v>3.3070228843410751E-2</v>
       </c>
       <c r="C57">
         <f t="shared" si="6"/>
-        <v>0.47037483044521289</v>
+        <v>3.2011597972806768E-2</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -10757,11 +10757,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="5"/>
-        <v>0.15825809985720815</v>
+        <v>0.27492189817043722</v>
       </c>
       <c r="C58">
         <f t="shared" si="6"/>
-        <v>0.1366345721016054</v>
+        <v>0.21563822738079949</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -10778,11 +10778,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="5"/>
-        <v>5.0251256281407045E-3</v>
+        <v>18.999999999999979</v>
       </c>
       <c r="C59">
         <f t="shared" si="6"/>
-        <v>5.000000000000001E-3</v>
+        <v>0.95</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -10799,11 +10799,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="5"/>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C60">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -10820,11 +10820,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="5"/>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C61">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -10841,11 +10841,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="5"/>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C62">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D62">
         <v>7</v>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="B63">
         <f t="shared" si="5"/>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C63">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -10883,11 +10883,11 @@
       </c>
       <c r="B64">
         <f t="shared" si="5"/>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C64">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -10904,11 +10904,11 @@
       </c>
       <c r="B65">
         <f>EXP($B$28+($B$27*A65))</f>
-        <v>4.984079607912399</v>
+        <v>3.9780026365071755E-3</v>
       </c>
       <c r="C65">
         <f t="shared" si="6"/>
-        <v>0.83288992367719195</v>
+        <v>3.9622408320308796E-3</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -10924,11 +10924,11 @@
       </c>
       <c r="B66">
         <f t="shared" si="5"/>
-        <v>2.333333333333333</v>
+        <v>1.0101010101010111E-2</v>
       </c>
       <c r="C66">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -10944,11 +10944,11 @@
       </c>
       <c r="B67">
         <f t="shared" si="5"/>
-        <v>2.177771975530387</v>
+        <v>1.0993998939722522E-2</v>
       </c>
       <c r="C67">
         <f t="shared" si="6"/>
-        <v>0.68531411073536996</v>
+        <v>1.0874445299628338E-2</v>
       </c>
       <c r="D67">
         <v>12</v>
@@ -10964,11 +10964,11 @@
       </c>
       <c r="B68">
         <f t="shared" si="5"/>
-        <v>2.0325817617452251</v>
+        <v>1.196593325597536E-2</v>
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
-        <v>0.67024796738719805</v>
+        <v>1.1824442763083205E-2</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -10984,11 +10984,11 @@
       </c>
       <c r="B69">
         <f t="shared" si="5"/>
-        <v>1.8970712565869716</v>
+        <v>1.3023792295369358E-2</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
-        <v>0.65482381638824583</v>
+        <v>1.2856353813624929E-2</v>
       </c>
       <c r="D69">
         <v>14</v>
@@ -11004,11 +11004,11 @@
       </c>
       <c r="B70">
         <f t="shared" si="5"/>
-        <v>1.7705951220768528</v>
+        <v>1.4175172309959249E-2</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
-        <v>0.63906671457271802</v>
+        <v>1.3977045284665019E-2</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -11024,11 +11024,11 @@
       </c>
       <c r="B71">
         <f t="shared" si="5"/>
-        <v>1.6525510443727607</v>
+        <v>1.542834110526151E-2</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
-        <v>0.62300442733366279</v>
+        <v>1.5193924062103929E-2</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -11044,11 +11044,11 @@
       </c>
       <c r="B72">
         <f t="shared" si="5"/>
-        <v>1.542376865386488</v>
+        <v>1.6792297409539303E-2</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
-        <v>0.6066672830394948</v>
+        <v>1.6514973070036715E-2</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -11064,11 +11064,11 @@
       </c>
       <c r="B73">
         <f t="shared" si="5"/>
-        <v>1.4395479056336133</v>
+        <v>1.8276835491682034E-2</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
-        <v>0.59008798405199814</v>
+        <v>1.7948788438123447E-2</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -11084,11 +11084,11 @@
       </c>
       <c r="B74">
         <f t="shared" si="5"/>
-        <v>1.3435744655667197</v>
+        <v>1.9892615491686468E-2</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
-        <v>0.57330137587150165</v>
+        <v>1.9504617632804713E-2</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -11104,11 +11104,11 @@
       </c>
       <c r="B75">
         <f t="shared" si="5"/>
-        <v>1.2539994934926082</v>
+        <v>2.1651239968766951E-2</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
-        <v>0.55634417714509599</v>
+        <v>2.1192398268345326E-2</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -11124,11 +11124,11 @@
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
-        <v>1.1703964089675012</v>
+        <v>2.3565337216769847E-2</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
-        <v>0.53925467446026654</v>
+        <v>2.3022797236224891E-2</v>
       </c>
       <c r="D76">
         <v>21</v>

--- a/TAM_Deployable.xlsx
+++ b/TAM_Deployable.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Desktop\OSU_Course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE4CCC-D536-48A3-9B58-A62C95868EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA53627-6194-4BEB-AEE8-8FC405762AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22065" yWindow="-180" windowWidth="28950" windowHeight="15465" tabRatio="762" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="-135" windowWidth="25065" windowHeight="14535" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="12" r:id="rId1"/>
-    <sheet name="Linear Function" sheetId="1" r:id="rId2"/>
-    <sheet name="Linear Function (2)" sheetId="16" r:id="rId3"/>
-    <sheet name="Categorical Function" sheetId="14" r:id="rId4"/>
-    <sheet name="Logistic Function" sheetId="13" r:id="rId5"/>
-    <sheet name="Logistic Function (2)" sheetId="18" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId7"/>
+    <sheet name="Linear Function" sheetId="16" r:id="rId2"/>
+    <sheet name="Categorical Function" sheetId="14" r:id="rId3"/>
+    <sheet name="Logistic Function" sheetId="18" r:id="rId4"/>
+    <sheet name="Logistic Function_unhidden" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Breakpoint #</t>
   </si>
@@ -244,12 +243,6 @@
     <t>Relative Elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">Smith et al. 2019, Elevation impacts whatever elevation impacts and the citation is </t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
@@ -268,10 +261,10 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Distance</t>
+    <t>Var B</t>
   </si>
   <si>
-    <t>%light reduced</t>
+    <t>Var A</t>
   </si>
 </sst>
 </file>
@@ -582,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,15 +646,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -792,9 +776,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,6 +835,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1043,25 +1031,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,410 +1067,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.95</c:v>
-                </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.9</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5615-417D-B5A8-6E68589F41AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="437437232"/>
-        <c:axId val="437440368"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="437437232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linear Function'!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temperature</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437440368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="437440368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linear Function'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Index Value (Y)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="437437232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linear Function (2)'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Index Value (Y)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Linear Function (2)'!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Linear Function (2)'!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1527,7 +1135,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Function (2)'!$B$2</c:f>
+              <c:f>'Linear Function'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1630,7 +1238,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Function (2)'!$C$2</c:f>
+              <c:f>'Linear Function'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,7 +1359,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2113,7 +1721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2152,7 +1760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day</c:v>
+                  <c:v>Var A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2182,64 +1790,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0000000000000009</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7000000000000011</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7999999999999989</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.499999999999998</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.199999999999998</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.899999999999997</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.599999999999996</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.299999999999995</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.999999999999995</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,67 +1859,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.8808922992972194E-4</c:v>
+                  <c:v>6.1887345939506417E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5279225752738354E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2364925394487509E-3</c:v>
+                  <c:v>1.6120320021418087E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7925229216830922E-3</c:v>
+                  <c:v>2.5888518191078926E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5979406451186165E-3</c:v>
+                  <c:v>4.1327183278797738E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7638846934914981E-3</c:v>
+                  <c:v>6.5355017408597671E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4502397961353278E-3</c:v>
+                  <c:v>0.10186831791210336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8861614814030399E-3</c:v>
+                  <c:v>0.15538973808982123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1398312782136114E-2</c:v>
+                  <c:v>0.22983518614657142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.644868974484421E-2</c:v>
+                  <c:v>0.32617305416739661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3683185756671599E-2</c:v>
+                  <c:v>0.43983088876670334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3989612517409583E-2</c:v>
+                  <c:v>0.56016911123329638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8558107445047571E-2</c:v>
+                  <c:v>0.67382694583260316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8925360207639674E-2</c:v>
+                  <c:v>0.77016481385342839</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.696483725372973E-2</c:v>
+                  <c:v>0.84461026191017852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13476007049774802</c:v>
+                  <c:v>0.89813168208789662</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18428091653844733</c:v>
+                  <c:v>0.93464498259140227</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.24680854425930596</c:v>
+                  <c:v>0.95867281672120219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32217279560140755</c:v>
+                  <c:v>0.97411148180892104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40808146781123245</c:v>
+                  <c:v>0.98387967997858183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.49999999999999911</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,7 +1927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D79-4E26-80E1-2986F4B1D16C}"/>
+              <c16:uniqueId val="{00000000-B731-4E78-A672-D9C3398A8AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2355,34 +1963,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,34 +2002,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.999999999999985E-4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.699931492031691E-3</c:v>
+                  <c:v>2.5888518191078926E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.888350646364635E-3</c:v>
+                  <c:v>4.1327183278797738E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9035106872985729E-3</c:v>
+                  <c:v>6.5355017408597671E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3128970889107187E-3</c:v>
+                  <c:v>0.10186831791210336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.405932050521861E-2</c:v>
+                  <c:v>0.43983088876670334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3683185756671589E-2</c:v>
+                  <c:v>0.84461026191017852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9629971261743599E-2</c:v>
+                  <c:v>0.93464498259140227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5592937171742152E-2</c:v>
+                  <c:v>0.97411148180892104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10667579198909133</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2037,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3D79-4E26-80E1-2986F4B1D16C}"/>
+              <c16:uniqueId val="{00000001-B731-4E78-A672-D9C3398A8AAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2448,6 +2056,7 @@
         <c:axId val="437439976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2472,7 +2081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Day</c:v>
+                  <c:v>Var A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,6 +2160,7 @@
         <c:axId val="437443112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2575,7 +2185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>%Damage</c:v>
+                  <c:v>Var B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2692,7 +2302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2727,11 +2337,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic Function (2)'!$F$1</c:f>
+              <c:f>'Logistic Function_unhidden'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distance</c:v>
+                  <c:v>Day</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2753,7 +2363,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Function (2)'!$A$32:$A$52</c:f>
+              <c:f>'Logistic Function_unhidden'!$A$32:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2761,136 +2371,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>5.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>7.0000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>7.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>9.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>10.499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>11.199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85</c:v>
+                  <c:v>11.899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>12.599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>13.299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>13.999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Function (2)'!$C$32:$C$52</c:f>
+              <c:f>'Logistic Function_unhidden'!$C$32:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>5.8808922992972194E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0393290683358296E-3</c:v>
+                  <c:v>8.5279225752738354E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1952176666401514E-3</c:v>
+                  <c:v>1.2364925394487509E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3977045284665019E-2</c:v>
+                  <c:v>1.7925229216830922E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1192398268345326E-2</c:v>
+                  <c:v>2.5979406451186165E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2011597972806768E-2</c:v>
+                  <c:v>3.7638846934914981E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.808291077104393E-2</c:v>
+                  <c:v>5.4502397961353278E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1625743443136075E-2</c:v>
+                  <c:v>7.8861614814030399E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1054192731962313</c:v>
+                  <c:v>1.1398312782136114E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15253713468087066</c:v>
+                  <c:v>1.644868974484421E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21563822738079949</c:v>
+                  <c:v>2.3683185756671599E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29573362854008012</c:v>
+                  <c:v>3.3989612517409583E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39075807907806781</c:v>
+                  <c:v>4.8558107445047571E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49486116443469069</c:v>
+                  <c:v>6.8925360207639674E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59941174732372715</c:v>
+                  <c:v>9.696483725372973E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69563244170357819</c:v>
+                  <c:v>0.13476007049774802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.77732688100061809</c:v>
+                  <c:v>0.18428091653844733</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.84207207029847431</c:v>
+                  <c:v>0.24680854425930596</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89064023616330668</c:v>
+                  <c:v>0.32217279560140755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92559187524337716</c:v>
+                  <c:v>0.40808146781123245</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95</c:v>
+                  <c:v>0.49999999999999911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,7 +2508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B731-4E78-A672-D9C3398A8AAC}"/>
+              <c16:uniqueId val="{00000000-3D79-4E26-80E1-2986F4B1D16C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2929,60 +2539,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Logistic Function (2)'!$F$2:$F$11</c:f>
+              <c:f>'Logistic Function_unhidden'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Logistic Function (2)'!$G$2:$G$11</c:f>
+              <c:f>'Logistic Function_unhidden'!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6.0393290683358296E-3</c:v>
+                  <c:v>9.999999999999985E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2011597972806768E-2</c:v>
+                  <c:v>1.699931492031691E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21563822738079949</c:v>
+                  <c:v>2.888350646364635E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>4.9035106872985729E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>8.3128970889107187E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>1.405932050521861E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>2.3683185756671589E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>3.9629971261743599E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>6.5592937171742152E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9622408320308796E-3</c:v>
+                  <c:v>0.10667579198909133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,7 +2618,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B731-4E78-A672-D9C3398A8AAC}"/>
+              <c16:uniqueId val="{00000001-3D79-4E26-80E1-2986F4B1D16C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3009,7 +2637,6 @@
         <c:axId val="437439976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3030,11 +2657,11 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic Function (2)'!$F$1</c:f>
+              <c:f>'Logistic Function_unhidden'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distance</c:v>
+                  <c:v>Day</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3113,7 +2740,6 @@
         <c:axId val="437443112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3134,11 +2760,11 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Logistic Function (2)'!$G$1</c:f>
+              <c:f>'Logistic Function_unhidden'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>%light reduced</c:v>
+                  <c:v>%Damage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3415,46 +3041,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5519,566 +5105,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1653540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6121,7 +5148,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6142,6 +5169,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280189</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>844022</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>5292</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381C397C-FB99-4846-A609-CD15DA7B184D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6189,49 +5259,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>269605</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>56619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>833438</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381C397C-FB99-4846-A609-CD15DA7B184D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6540,26 +5567,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="D1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="75"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6567,47 +5594,47 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="D6" s="50" t="s">
+      <c r="B6" s="73"/>
+      <c r="D6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6615,13 +5642,13 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6629,7 +5656,7 @@
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6637,7 +5664,7 @@
       <c r="A9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6645,7 +5672,7 @@
       <c r="A10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="53" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6653,15 +5680,15 @@
       <c r="A11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6687,12 +5714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6711,11 +5737,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
@@ -6723,750 +5749,338 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="66" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="33">
         <v>0</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>0</v>
       </c>
       <c r="E3" s="21" t="str">
-        <f>CONCATENATE(B3," -",B4)</f>
-        <v>0 -5</v>
+        <f t="shared" ref="E3:E8" si="0">CONCATENATE(B3," -",B4)</f>
+        <v>0 -15</v>
       </c>
       <c r="F3" s="22">
-        <f>C4-(B5*G3)</f>
+        <f>C4-(B4*G3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="23">
-        <f>(C4-C3)/(B5-B3)</f>
-        <v>6.6666666666666666E-2</v>
+        <f>(C4-C3)/(B4-B3)</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H3" s="24" t="str">
         <f>CONCATENATE("Y= ",ROUND(F3,2)," +  (",ROUND(G3,4)," * ",$B$2,")")</f>
-        <v>Y= 0 +  (0.0667 * Temperature)</v>
-      </c>
-      <c r="J3" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
+        <v>Y= 0 +  (0.0333 * Relative Elevation)</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="71">
-        <v>5</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1</v>
+      <c r="B4" s="33">
+        <v>15</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0.5</v>
       </c>
       <c r="E4" s="21" t="str">
-        <f t="shared" ref="E4:E8" si="0">CONCATENATE(B4," -",B5)</f>
-        <v>5 -15</v>
+        <f t="shared" si="0"/>
+        <v>15 -18</v>
       </c>
       <c r="F4" s="22">
-        <f>C5-(B6*G4)</f>
-        <v>1</v>
+        <f>C5-(B5*G4)</f>
+        <v>-2</v>
       </c>
       <c r="G4" s="23">
-        <f>(C5-C4)/(B6-B5)</f>
-        <v>0</v>
+        <f>(C5-C4)/(B5-B4)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H4" s="24" t="str">
-        <f>CONCATENATE("Y= ",ROUND(F4,2)," +  (",ROUND(G4,4)," * ",$B$2,")")</f>
-        <v>Y= 1 +  (0 * Temperature)</v>
-      </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
+        <f t="shared" ref="H4:H7" si="1">CONCATENATE("Y= ",ROUND(F4,2)," +  (",ROUND(G4,4)," * ",$B$2,")")</f>
+        <v>Y= -2 +  (0.1667 * Relative Elevation)</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
-        <v>15</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B5" s="67">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>15 -18</v>
+        <v>18 -20</v>
       </c>
       <c r="F5" s="22">
-        <f>C6-(B7*G5)</f>
-        <v>2.8</v>
+        <f>C6-(B6*G5)</f>
+        <v>1</v>
       </c>
       <c r="G5" s="23">
-        <f>(C6-C5)/(B7-B6)</f>
-        <v>-9.9999999999999978E-2</v>
+        <f>(C6-C5)/(B6-B5)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="24" t="str">
-        <f t="shared" ref="H5:H7" si="1">CONCATENATE("Y= ",ROUND(F5,2)," +  (",ROUND(G5,4)," * ",$B$2,")")</f>
-        <v>Y= 2.8 +  (-0.1 * Temperature)</v>
-      </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87"/>
+        <f t="shared" si="1"/>
+        <v>Y= 1 +  (0 * Relative Elevation)</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="70">
-        <v>18</v>
-      </c>
-      <c r="C6" s="37">
-        <v>0.8</v>
+      <c r="B6" s="67">
+        <v>20</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
       </c>
       <c r="E6" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>18 -20</v>
+        <v>20 -23</v>
       </c>
       <c r="F6" s="22">
-        <f>C7-(B8*G6)</f>
-        <v>-0.19999999999999929</v>
+        <f>C7-(B7*G6)</f>
+        <v>2.333333333333333</v>
       </c>
       <c r="G6" s="23">
-        <f>(C7-C6)/(B8-B7)</f>
-        <v>4.9999999999999968E-2</v>
+        <f>(C7-C6)/(B7-B6)</f>
+        <v>-6.6666666666666652E-2</v>
       </c>
       <c r="H6" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Y= -0.2 +  (0.05 * Temperature)</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
+        <v>Y= 2.33 +  (-0.0667 * Relative Elevation)</v>
+      </c>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="70">
-        <v>20</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.95</v>
+      <c r="B7" s="67">
+        <v>23</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.8</v>
       </c>
       <c r="E7" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>20 -23</v>
+        <v>23 -26</v>
       </c>
       <c r="F7" s="22">
-        <f>C8-(B9*G7)</f>
-        <v>1.3333333333333328</v>
+        <f>C8-(B8*G7)</f>
+        <v>2.3333333333333339</v>
       </c>
       <c r="G7" s="23">
-        <f>(C8-C7)/(B9-B8)</f>
-        <v>-1.6666666666666646E-2</v>
+        <f>(C8-C7)/(B8-B7)</f>
+        <v>-6.6666666666666693E-2</v>
       </c>
       <c r="H7" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>Y= 1.33 +  (-0.0167 * Temperature)</v>
+        <v>Y= 2.33 +  (-0.0667 * Relative Elevation)</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="83"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="70">
-        <v>23</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0.9</v>
+      <c r="B8" s="67">
+        <v>26</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.6</v>
       </c>
       <c r="E8" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>23 -26</v>
+        <v>26 -27</v>
       </c>
       <c r="F8" s="22">
-        <f>IFERROR(C9-(B10*G8),"")</f>
-        <v>3.4999999999999991</v>
+        <f>IFERROR(C9-(B9*G8),"")</f>
+        <v>5.7999999999999989</v>
       </c>
       <c r="G8" s="23">
-        <f>IFERROR((C9-C8)/(B10-B9),"")</f>
-        <v>-9.9999999999999978E-2</v>
+        <f>IFERROR((C9-C8)/(B9-B8),"")</f>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="H8" s="24" t="str">
         <f>IFERROR(CONCATENATE("Y= ",ROUND(F8,2)," +  (",ROUND(G8,4)," * ",$B$2,")"),"")</f>
-        <v>Y= 3.5 +  (-0.1 * Temperature)</v>
-      </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
+        <v>Y= 5.8 +  (-0.2 * Relative Elevation)</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="70">
-        <v>26</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0.8</v>
+      <c r="B9" s="67">
+        <v>27</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.4</v>
       </c>
       <c r="E9" s="21" t="str">
-        <f>CONCATENATE(B9," -",B10)</f>
-        <v>26 -27</v>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>IFERROR(C10-(B11*G9),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="23" t="e">
-        <f>(IF(ISBLANK(C10),"",(C10-C9)/(#REF!-B10)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="24" t="e">
+        <f t="shared" ref="E9:E12" si="2">CONCATENATE(B9," -",B10)</f>
+        <v>27 -30</v>
+      </c>
+      <c r="F9" s="22">
+        <f>IF(ISBLANK(C10),"",C10-(B10*G9))</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9" s="23">
+        <f>(IF(ISBLANK(C10),"",(C10-C9)/(B10-B9)))</f>
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="H9" s="24" t="str">
         <f>IF(ISBLANK(C10),"",CONCATENATE("Y= ",ROUND(F9,2)," +  (",ROUND(G9,4)," * ",$B$2,")"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
+        <v>Y= 2.2 +  (-0.0667 * Relative Elevation)</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="70">
-        <v>27</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="21" t="e">
-        <f>CONCATENATE(#REF!," -",B11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="22" t="str">
+      <c r="B10" s="33">
+        <v>30</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>30 -35</v>
+      </c>
+      <c r="F10" s="22">
         <f>IF(ISBLANK(C11),"",C11-(B11*G10))</f>
-        <v/>
-      </c>
-      <c r="G10" s="23" t="str">
-        <f>(IF(ISBLANK(C11),"",(C11-C10)/(B11-#REF!)))</f>
-        <v/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" ref="G10:G12" si="3">(IF(ISBLANK(C11),"",(C11-C10)/(B11-B10)))</f>
+        <v>-0.04</v>
       </c>
       <c r="H10" s="24" t="str">
-        <f t="shared" ref="H10:H12" si="2">IF(ISBLANK(C11),"",CONCATENATE("Y= ",ROUND(F10,2)," +  (",ROUND(G10,4)," * ",$B$2,")"))</f>
-        <v/>
-      </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87"/>
+        <f t="shared" ref="H10:H12" si="4">IF(ISBLANK(C11),"",CONCATENATE("Y= ",ROUND(F10,2)," +  (",ROUND(G10,4)," * ",$B$2,")"))</f>
+        <v>Y= 1.4 +  (-0.04 * Relative Elevation)</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="33">
+        <v>35</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
       <c r="E11" s="21" t="str">
-        <f t="shared" ref="E11:E12" si="3">CONCATENATE(B11," -",B12)</f>
-        <v xml:space="preserve"> -</v>
+        <f t="shared" si="2"/>
+        <v>35 -</v>
       </c>
       <c r="F11" s="22" t="str">
-        <f t="shared" ref="F11:F12" si="4">IF(ISBLANK(C12),"",C12-(B12*G11))</f>
+        <f t="shared" ref="F11:F12" si="5">IF(ISBLANK(C12),"",C12-(B12*G11))</f>
         <v/>
       </c>
       <c r="G11" s="23" t="str">
-        <f t="shared" ref="G11:G12" si="5">(IF(ISBLANK(C12),"",(C12-C11)/(B12-B11)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H11" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="E12" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-      <c r="F12" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G12" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H12" s="58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J3:O12"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please enter an index value between 0 and 1." sqref="C3:C12" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="str">
-        <f t="shared" ref="E3:E8" si="0">CONCATENATE(B3," -",B4)</f>
-        <v>0 -15</v>
-      </c>
-      <c r="F3" s="22">
-        <f>C4-(B4*G3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="23">
-        <f>(C4-C3)/(B4-B3)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="H3" s="24" t="str">
-        <f>CONCATENATE("Y= ",ROUND(F3,2)," +  (",ROUND(G3,4)," * ",$B$2,")")</f>
-        <v>Y= 0 +  (0.0667 * Relative Elevation)</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36">
-        <v>15</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>15 -18</v>
-      </c>
-      <c r="F4" s="22">
-        <f>C5-(B5*G4)</f>
-        <v>1.75</v>
-      </c>
-      <c r="G4" s="23">
-        <f>(C5-C4)/(B5-B4)</f>
-        <v>-5.000000000000001E-2</v>
-      </c>
-      <c r="H4" s="24" t="str">
-        <f t="shared" ref="H4:H7" si="1">CONCATENATE("Y= ",ROUND(F4,2)," +  (",ROUND(G4,4)," * ",$B$2,")")</f>
-        <v>Y= 1.75 +  (-0.05 * Relative Elevation)</v>
-      </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="70">
-        <v>18</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>18 -20</v>
-      </c>
-      <c r="F5" s="22">
-        <f>C6-(B6*G5)</f>
-        <v>1.2999999999999994</v>
-      </c>
-      <c r="G5" s="23">
-        <f>(C6-C5)/(B6-B5)</f>
-        <v>-2.4999999999999967E-2</v>
-      </c>
-      <c r="H5" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Y= 1.3 +  (-0.025 * Relative Elevation)</v>
-      </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="70">
-        <v>20</v>
-      </c>
-      <c r="C6" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>20 -23</v>
-      </c>
-      <c r="F6" s="22">
-        <f>C7-(B7*G6)</f>
-        <v>2.1333333333333337</v>
-      </c>
-      <c r="G6" s="23">
-        <f>(C7-C6)/(B7-B6)</f>
-        <v>-6.6666666666666693E-2</v>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Y= 2.13 +  (-0.0667 * Relative Elevation)</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="70">
-        <v>23</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>23 -26</v>
-      </c>
-      <c r="F7" s="22">
-        <f>C8-(B8*G7)</f>
-        <v>5.192333333333333</v>
-      </c>
-      <c r="G7" s="23">
-        <f>(C8-C7)/(B8-B7)</f>
-        <v>-0.19966666666666666</v>
-      </c>
-      <c r="H7" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>Y= 5.19 +  (-0.1997 * Relative Elevation)</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="70">
-        <v>26</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>26 -27</v>
-      </c>
-      <c r="F8" s="22">
-        <f>IFERROR(C9-(B9*G8),"")</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="G8" s="23">
-        <f>IFERROR((C9-C8)/(B9-B8),"")</f>
-        <v>-1E-3</v>
-      </c>
-      <c r="H8" s="24" t="str">
-        <f>IFERROR(CONCATENATE("Y= ",ROUND(F8,2)," +  (",ROUND(G8,4)," * ",$B$2,")"),"")</f>
-        <v>Y= 0.03 +  (-0.001 * Relative Elevation)</v>
-      </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="70">
-        <v>27</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21" t="str">
-        <f t="shared" ref="E9:E12" si="2">CONCATENATE(B9," -",B10)</f>
-        <v>27 -</v>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>IF(ISBLANK(C10),"",C10-(B10*G9))</f>
-        <v/>
-      </c>
-      <c r="G9" s="23" t="str">
-        <f>(IF(ISBLANK(C10),"",(C10-C9)/(B10-B9)))</f>
-        <v/>
-      </c>
-      <c r="H9" s="24" t="str">
-        <f>IF(ISBLANK(C10),"",CONCATENATE("Y= ",ROUND(F9,2)," +  (",ROUND(G9,4)," * ",$B$2,")"))</f>
-        <v/>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="E10" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-      <c r="F10" s="22" t="str">
-        <f>IF(ISBLANK(C11),"",C11-(B11*G10))</f>
-        <v/>
-      </c>
-      <c r="G10" s="23" t="str">
-        <f t="shared" ref="G10:G12" si="3">(IF(ISBLANK(C11),"",(C11-C10)/(B11-B10)))</f>
-        <v/>
-      </c>
-      <c r="H10" s="24" t="str">
-        <f t="shared" ref="H10:H12" si="4">IF(ISBLANK(C11),"",CONCATENATE("Y= ",ROUND(F10,2)," +  (",ROUND(G10,4)," * ",$B$2,")"))</f>
-        <v/>
-      </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="E11" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> -</v>
-      </c>
-      <c r="F11" s="22" t="str">
-        <f t="shared" ref="F11:F12" si="5">IF(ISBLANK(C12),"",C12-(B12*G11))</f>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="E12" s="25" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> -</v>
@@ -7479,16 +6093,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="58" t="str">
+      <c r="H12" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="86"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -7521,7 +6135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -7545,11 +6159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
@@ -7557,213 +6171,213 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="60">
         <v>0.1</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="56" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="60">
         <v>0.25</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="56" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="60">
         <v>0.5</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="56" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="60">
         <v>1</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="64"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="83"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="64"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
-      <c r="E9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
-      <c r="E10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
-      <c r="E11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="61"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
-      <c r="E12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="61"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="26" t="str">
         <f t="shared" ref="F12" si="0">IF(ISBLANK(C13),"",C13-(B13*G12))</f>
         <v/>
@@ -7772,16 +6386,16 @@
         <f t="shared" ref="G12" si="1">(IF(ISBLANK(C13),"",(C13-C12)/(B13-B12)))</f>
         <v/>
       </c>
-      <c r="H12" s="58" t="str">
+      <c r="H12" s="55" t="str">
         <f t="shared" ref="H12" si="2">IF(ISBLANK(C13),"",CONCATENATE("Y= ",ROUND(F12,2)," +  (",ROUND(G12,4)," * ",$B$2,")"))</f>
         <v/>
       </c>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="90"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="86"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -7818,13 +6432,2014 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FAD37E-DB47-4E7B-8496-ECECE347E35B}">
+  <dimension ref="A1:N163"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="2"/>
+    <col min="11" max="11" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5703125" style="2"/>
+    <col min="14" max="14" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16">
+        <f t="shared" ref="G2:G16" si="0">C56</f>
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="28">
+        <v>100</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="30">
+        <v>15</v>
+      </c>
+      <c r="G3" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5888518191078926E-2</v>
+      </c>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0.99</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="30">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>4.1327183278797738E-2</v>
+      </c>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28">
+        <v>5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="30">
+        <v>25</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="0"/>
+        <v>6.5355017408597671E-2</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="83"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+      <c r="F6" s="30">
+        <v>30</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10186831791210336</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="E7" s="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="30">
+        <v>50</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.43983088876670334</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="15">
+        <v>7</v>
+      </c>
+      <c r="F8" s="30">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.84461026191017852</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="E9" s="15">
+        <v>8</v>
+      </c>
+      <c r="F9" s="30">
+        <v>80</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.93464498259140227</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="E10" s="15">
+        <v>9</v>
+      </c>
+      <c r="F10" s="30">
+        <v>90</v>
+      </c>
+      <c r="G10" s="16">
+        <f>C64</f>
+        <v>0.97411148180892104</v>
+      </c>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="17">
+        <v>10</v>
+      </c>
+      <c r="F11" s="58">
+        <v>100</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99</v>
+      </c>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="89"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="I20" s="3"/>
+      <c r="J20"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+      <c r="I21" s="3"/>
+      <c r="J21"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f>LN(B4/(1-B4))</f>
+        <v>4.5951198501345889</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <f>LN(B6/(1-B6))</f>
+        <v>-4.5951198501345898</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <f>($B$25-$B$26)/($B$3-$B$5)</f>
+        <v>9.6739365265991348E-2</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2">
+        <f>$B$25-($B$27*$B$3)</f>
+        <v>-5.0788166764645464</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:B52" si="1">EXP($B$28+($B$27*A32))</f>
+        <v>6.2272735371157835E-3</v>
+      </c>
+      <c r="C32">
+        <f>B32/(1+B32)</f>
+        <v>6.1887345939506417E-3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A52" si="2">A32+($B$3/20)</f>
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C52" si="3">B33/(1+B33)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>1.638444247752836E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>1.6120320021418087E-2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>2.6576545574644138E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>2.5888518191078926E-2</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>4.3108746339697621E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>4.1327183278797738E-2</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>6.992496469343254E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>6.5355017408597671E-2</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.11342247461451192</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.10186831791210336</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0.1839780370870587</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>0.15538973808982123</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0.29842337901236782</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>0.22983518614657142</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>0.48406056805040082</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>0.32617305416739661</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>0.78517519075328779</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>0.43983088876670334</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>1.2736011170202803</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>0.56016911123329638</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>2.0658571798723298</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>0.67382694583260316</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>3.3509438949103072</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>0.77016481385342839</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>5.4354314016666923</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>0.84461026191017852</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>8.8165948009747748</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>0.89813168208789662</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>14.301044046060429</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>0.93464498259140227</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>23.197148720586373</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>0.95867281672120219</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>37.627162536656712</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>0.97411148180892104</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>61.033507937271672</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>0.98387967997858183</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>98.999999999999901</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>0.99</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ref="A56:A65" si="4">F2</f>
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:B76" si="5">EXP($B$28+($B$27*A56))</f>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:C76" si="6">B56/(1+B56)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>2.6576545574644138E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>2.5888518191078926E-2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>4.3108746339697621E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>4.1327183278797738E-2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>6.992496469343254E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>6.5355017408597671E-2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>0.11342247461451192</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="6"/>
+        <v>0.10186831791210336</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>0.78517519075328779</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="6"/>
+        <v>0.43983088876670334</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>5.4354314016666923</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="6"/>
+        <v>0.84461026191017852</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>14.301044046060429</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="6"/>
+        <v>0.93464498259140227</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>37.627162536656712</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="6"/>
+        <v>0.97411148180892104</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <f>EXP($B$28+($B$27*A65))</f>
+        <v>98.999999999999901</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="6"/>
+        <v>0.99</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>1.8048663188251768E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="6"/>
+        <v>1.7728684139447972E-2</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>1.9881924168596781E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>1.9494339195004793E-2</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>2.19013953844036E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>2.1432004578254889E-2</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>2.4125990810366787E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>2.3557639418248195E-2</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>2.6576545574644138E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>2.5888518191078926E-2</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>2.92760110966153E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>2.8443304595648682E-2</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>3.2249670045412522E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>3.1242121921912305E-2</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>3.5525373132483218E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>3.4306617736481256E-2</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>3.9133799955937423E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>3.7660020256868577E-2</v>
+      </c>
+      <c r="D74">
+        <v>19</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>4.3108746339697621E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>4.1327183278797738E-2</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>21</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>4.7487440858613547E-2</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>4.5334615964167206E-2</v>
+      </c>
+      <c r="D76">
+        <v>21</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+    </row>
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="H147"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N11"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Improper value" error="Please enter a number greater than 0 and less than 1. For threshold values of 0 or 1, enter 0.00001 and 0.99999, respectively." sqref="B4 B6" xr:uid="{A2D70E56-DBAC-4334-8ABB-167C0B29260E}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Improper value" error="Please enter a number less than or equal to the maximum threshold" sqref="F2:F16" xr:uid="{DC8FA049-A55F-44C4-AB4D-8B46A49FC9CA}">
+      <formula1>$B$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7845,240 +8460,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="87"/>
       <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="79" t="s">
+      <c r="F1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="30">
         <v>1</v>
       </c>
       <c r="G2" s="16">
         <f t="shared" ref="G2:G11" si="0">C56</f>
         <v>9.999999999999985E-4</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="31">
+        <v>63</v>
+      </c>
+      <c r="B3" s="28">
         <v>14</v>
       </c>
       <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" si="0"/>
         <v>1.699931492031691E-3</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="39">
+        <v>64</v>
+      </c>
+      <c r="B4" s="36">
         <v>0.5</v>
       </c>
       <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="30">
         <v>3</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>2.888350646364635E-3</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="31">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28">
         <v>1</v>
       </c>
       <c r="E5" s="15">
         <v>4</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="30">
         <v>4</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>4.9035106872985729E-3</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="83"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="32">
+        <v>61</v>
+      </c>
+      <c r="B6" s="29">
         <v>1E-3</v>
       </c>
       <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <v>5</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>8.3128970889107187E-3</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="83"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E7" s="15">
         <v>6</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>6</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>1.405932050521861E-2</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E8" s="15">
         <v>7</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="30">
         <v>7</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>2.3683185756671589E-2</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E9" s="15">
         <v>8</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="30">
         <v>8</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>3.9629971261743599E-2</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="15">
         <v>9</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <v>9</v>
       </c>
       <c r="G10" s="16">
         <f>C64</f>
         <v>6.5592937171742152E-2</v>
       </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="E11" s="17">
         <v>10</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="58">
         <v>10</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>0.10667579198909133</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F12" s="61">
+      <c r="F12" s="58">
         <v>11</v>
       </c>
       <c r="G12" s="18">
@@ -8087,7 +8702,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F13" s="61">
+      <c r="F13" s="58">
         <v>12</v>
       </c>
       <c r="G13" s="18">
@@ -8096,7 +8711,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F14" s="61">
+      <c r="F14" s="58">
         <v>13</v>
       </c>
       <c r="G14" s="18">
@@ -8110,7 +8725,7 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="F15" s="61">
+      <c r="F15" s="58">
         <v>14</v>
       </c>
       <c r="G15" s="18">
@@ -8124,7 +8739,7 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="F16" s="61">
+      <c r="F16" s="58">
         <v>15</v>
       </c>
       <c r="G16" s="18">
@@ -9846,2010 +10461,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FAD37E-DB47-4E7B-8496-ECECE347E35B}">
-  <dimension ref="A1:N163"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="2"/>
-    <col min="11" max="11" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" style="2"/>
-    <col min="14" max="14" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16">
-        <f t="shared" ref="G2:G16" si="0">C56</f>
-        <v>6.0393290683358296E-3</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="31">
-        <v>100</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-      <c r="F3" s="33">
-        <v>25</v>
-      </c>
-      <c r="G3" s="16">
-        <f t="shared" si="0"/>
-        <v>3.2011597972806768E-2</v>
-      </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="39">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3</v>
-      </c>
-      <c r="F4" s="33">
-        <v>50</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.21563822738079949</v>
-      </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="31">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4</v>
-      </c>
-      <c r="F5" s="33">
-        <v>100</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="87"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="15">
-        <v>5</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E7" s="15">
-        <v>6</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E8" s="15">
-        <v>7</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E9" s="15">
-        <v>8</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="16">
-        <f t="shared" si="0"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E10" s="15">
-        <v>9</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="16">
-        <f>C64</f>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="E11" s="17">
-        <v>10</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F12" s="61"/>
-      <c r="G12" s="18">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F13" s="61"/>
-      <c r="G13" s="18">
-        <f t="shared" si="0"/>
-        <v>1.0874445299628338E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="F14" s="61"/>
-      <c r="G14" s="18">
-        <f t="shared" si="0"/>
-        <v>1.1824442763083205E-2</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="18">
-        <f t="shared" si="0"/>
-        <v>1.2856353813624929E-2</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="18">
-        <f t="shared" si="0"/>
-        <v>1.3977045284665019E-2</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="D20"/>
-      <c r="I20" s="3"/>
-      <c r="J20"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-      <c r="I21" s="3"/>
-      <c r="J21"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <f>LN(B4/(1-B4))</f>
-        <v>2.9444389791664394</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <f>LN(B6/(1-B6))</f>
-        <v>-4.5951198501345898</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2">
-        <f>($B$25-$B$26)/($B$3-$B$5)</f>
-        <v>8.4714144149449763E-2</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <f>$B$25-($B$27*$B$3)</f>
-        <v>-5.5269754357785361</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ref="B32:B52" si="1">EXP($B$28+($B$27*A32))</f>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C32">
-        <f>B32/(1+B32)</f>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A52" si="2">A32+($B$3/20)</f>
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>6.0760241777725633E-3</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:C52" si="3">B33/(1+B33)</f>
-        <v>6.0393290683358296E-3</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>9.2805543842706117E-3</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="3"/>
-        <v>9.1952176666401514E-3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
-        <v>1.4175172309959249E-2</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="3"/>
-        <v>1.3977045284665019E-2</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
-        <v>2.1651239968766951E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="3"/>
-        <v>2.1192398268345326E-2</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>3.3070228843410751E-2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="3"/>
-        <v>3.2011597972806768E-2</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="1"/>
-        <v>5.0511658331494645E-2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="3"/>
-        <v>4.808291077104393E-2</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>7.7151798358541537E-2</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="3"/>
-        <v>7.1625743443136075E-2</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>0.11784210193403329</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="3"/>
-        <v>0.1054192731962313</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="1"/>
-        <v>0.17999270637472675</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="3"/>
-        <v>0.15253713468087066</v>
-      </c>
-      <c r="D41">
-        <v>10</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="1"/>
-        <v>0.27492189817043722</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="3"/>
-        <v>0.21563822738079949</v>
-      </c>
-      <c r="D42">
-        <v>11</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>0.41991729340566769</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="3"/>
-        <v>0.29573362854008012</v>
-      </c>
-      <c r="D43">
-        <v>12</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
-        <v>0.64138409662742057</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="3"/>
-        <v>0.39075807907806781</v>
-      </c>
-      <c r="D44">
-        <v>13</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>0.97965376960352557</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="3"/>
-        <v>0.49486116443469069</v>
-      </c>
-      <c r="D45">
-        <v>14</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>1.4963288197273463</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="3"/>
-        <v>0.59941174732372715</v>
-      </c>
-      <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>2.2855012722022945</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="3"/>
-        <v>0.69563244170357819</v>
-      </c>
-      <c r="D47">
-        <v>16</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="1"/>
-        <v>3.4908878291805636</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="3"/>
-        <v>0.77732688100061809</v>
-      </c>
-      <c r="D48">
-        <v>17</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="1"/>
-        <v>5.332002210691547</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="3"/>
-        <v>0.84207207029847431</v>
-      </c>
-      <c r="D49">
-        <v>18</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="1"/>
-        <v>8.1441309391751986</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="3"/>
-        <v>0.89064023616330668</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="1"/>
-        <v>12.439392583415341</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="3"/>
-        <v>0.92559187524337716</v>
-      </c>
-      <c r="D51">
-        <v>20</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="1"/>
-        <v>18.999999999999979</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
-      </c>
-      <c r="D52">
-        <v>21</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" ref="A56:A65" si="4">F2</f>
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56:B76" si="5">EXP($B$28+($B$27*A56))</f>
-        <v>6.0760241777725633E-3</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ref="C56:C76" si="6">B56/(1+B56)</f>
-        <v>6.0393290683358296E-3</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="5"/>
-        <v>3.3070228843410751E-2</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="6"/>
-        <v>3.2011597972806768E-2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="5"/>
-        <v>0.27492189817043722</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="6"/>
-        <v>0.21563822738079949</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="5"/>
-        <v>18.999999999999979</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="6"/>
-        <v>0.95</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="5"/>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="5"/>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="5"/>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D62">
-        <v>7</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="5"/>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="5"/>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <f>EXP($B$28+($B$27*A65))</f>
-        <v>3.9780026365071755E-3</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="6"/>
-        <v>3.9622408320308796E-3</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>11</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="5"/>
-        <v>1.0101010101010111E-2</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="D66">
-        <v>11</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="5"/>
-        <v>1.0993998939722522E-2</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="6"/>
-        <v>1.0874445299628338E-2</v>
-      </c>
-      <c r="D67">
-        <v>12</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="5"/>
-        <v>1.196593325597536E-2</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="6"/>
-        <v>1.1824442763083205E-2</v>
-      </c>
-      <c r="D68">
-        <v>13</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>14</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="5"/>
-        <v>1.3023792295369358E-2</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="6"/>
-        <v>1.2856353813624929E-2</v>
-      </c>
-      <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>15</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="5"/>
-        <v>1.4175172309959249E-2</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="6"/>
-        <v>1.3977045284665019E-2</v>
-      </c>
-      <c r="D70">
-        <v>15</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>16</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="5"/>
-        <v>1.542834110526151E-2</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="6"/>
-        <v>1.5193924062103929E-2</v>
-      </c>
-      <c r="D71">
-        <v>16</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>17</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="5"/>
-        <v>1.6792297409539303E-2</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="6"/>
-        <v>1.6514973070036715E-2</v>
-      </c>
-      <c r="D72">
-        <v>17</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>18</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="5"/>
-        <v>1.8276835491682034E-2</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="6"/>
-        <v>1.7948788438123447E-2</v>
-      </c>
-      <c r="D73">
-        <v>18</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>19</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="5"/>
-        <v>1.9892615491686468E-2</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="6"/>
-        <v>1.9504617632804713E-2</v>
-      </c>
-      <c r="D74">
-        <v>19</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>20</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="5"/>
-        <v>2.1651239968766951E-2</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="6"/>
-        <v>2.1192398268345326E-2</v>
-      </c>
-      <c r="D75">
-        <v>20</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>21</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="5"/>
-        <v>2.3565337216769847E-2</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="6"/>
-        <v>2.3022797236224891E-2</v>
-      </c>
-      <c r="D76">
-        <v>21</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="H138"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="H141"/>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="H142"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="H144"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="H145"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="H146"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147"/>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="H147"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N11"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Improper value" error="Please enter a number greater than 0 and less than 1. For threshold values of 0 or 1, enter 0.00001 and 0.99999, respectively." sqref="B4 B6" xr:uid="{A2D70E56-DBAC-4334-8ABB-167C0B29260E}">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Improper value" error="Please enter a number less than or equal to the maximum threshold" sqref="F2:F16" xr:uid="{DC8FA049-A55F-44C4-AB4D-8B46A49FC9CA}">
-      <formula1>$B$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
